--- a/xlsx/爵士乐_intext.xlsx
+++ b/xlsx/爵士乐_intext.xlsx
@@ -15,1191 +15,1185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>爵士乐</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF</t>
+  </si>
+  <si>
+    <t>蓝调</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E6%B3%B0%E5%A7%86</t>
+  </si>
+  <si>
+    <t>拉格泰姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>民俗音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E8%A1%8C%E6%9B%B2</t>
+  </si>
+  <si>
+    <t>进行曲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>古典音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E7%AE%A1%E6%A8%82%E5%99%A8</t>
+  </si>
+  <si>
+    <t>铜管乐器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%96%AF%E9%A2%A8</t>
+  </si>
+  <si>
+    <t>萨克斯风</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E7%9B%A4%E6%A8%82%E5%99%A8</t>
+  </si>
+  <si>
+    <t>键盘乐器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E9%9F%B3%E6%8F%90%E7%90%B4</t>
+  </si>
+  <si>
+    <t>低音提琴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E9%BC%93</t>
+  </si>
+  <si>
+    <t>爵士鼓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BB%96</t>
+  </si>
+  <si>
+    <t>吉他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%94%B1</t>
+  </si>
+  <si>
+    <t>歌唱</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Avant-garde_jazz</t>
+  </si>
+  <si>
+    <t>en-Avant-garde jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%86%E5%8B%83%E7%88%B5%E5%A3%AB%E6%A8%82</t>
+  </si>
+  <si>
+    <t>咆勃爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A8%82%E5%9C%98</t>
+  </si>
+  <si>
+    <t>大乐团</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chamber_jazz</t>
+  </si>
+  <si>
+    <t>en-Chamber jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E7%88%B5%E5%A3%AB%E6%A8%82</t>
+  </si>
+  <si>
+    <t>冷爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Free_jazz</t>
+  </si>
+  <si>
+    <t>Free jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%99%AE%E8%B3%BD%E7%88%B5%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>吉普赛爵士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E5%8D%9A%E6%99%AE%E6%A8%82</t>
+  </si>
+  <si>
+    <t>硬博普乐</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Latin_jazz</t>
+  </si>
+  <si>
+    <t>en-Latin jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mainstream_jazz</t>
+  </si>
+  <si>
+    <t>en-Mainstream jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%81%94%E7%88%BE%E7%88%B5%E5%A3%AB%E6%A8%82</t>
+  </si>
+  <si>
+    <t>莫达尔爵士乐</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/M-Base</t>
+  </si>
+  <si>
+    <t>en-M-Base</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neo-bop_jazz</t>
+  </si>
+  <si>
+    <t>en-Neo-bop jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Post-bop</t>
+  </si>
+  <si>
+    <t>en-Post-bop</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Soul_jazz</t>
+  </si>
+  <si>
+    <t>en-Soul jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%93%BA%E6%A8%82</t>
+  </si>
+  <si>
+    <t>摇摆乐</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Third_stream</t>
+  </si>
+  <si>
+    <t>en-Third stream</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Trad_jazz</t>
+  </si>
+  <si>
+    <t>en-Trad jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%88%B5%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>酸爵士</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Afrobeat</t>
+  </si>
+  <si>
+    <t>en-Afrobeat</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>蓝草音乐</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Crossover_jazz</t>
+  </si>
+  <si>
+    <t>en-Crossover jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dansband</t>
+  </si>
+  <si>
+    <t>en-Dansband</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Folk_jazz</t>
+  </si>
+  <si>
+    <t>en-Folk jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Free_funk</t>
+  </si>
+  <si>
+    <t>en-Free funk</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Humppa</t>
+  </si>
+  <si>
+    <t>en-Humppa</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Indo_jazz</t>
+  </si>
+  <si>
+    <t>en-Indo jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jam_band</t>
+  </si>
+  <si>
+    <t>en-Jam band</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jazzcore</t>
+  </si>
+  <si>
+    <t>en-Jazzcore</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%85%8B%E7%88%B5%E5%A3%AB%E6%A8%82</t>
+  </si>
+  <si>
+    <t>放克爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9E%8D%E5%90%88%E7%88%B5%E5%A3%AB%E6%A8%82</t>
+  </si>
+  <si>
+    <t>融合爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Jazz_rap</t>
+  </si>
+  <si>
+    <t>Jazz rap</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kwela</t>
+  </si>
+  <si>
+    <t>en-Kwela</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mambo_(music)</t>
+  </si>
+  <si>
+    <t>en-Mambo (music)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Manila_Sound</t>
+  </si>
+  <si>
+    <t>en-Manila Sound</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%88%B5%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>新爵士</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neo_soul</t>
+  </si>
+  <si>
+    <t>en-Neo soul</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Punk_jazz</t>
+  </si>
+  <si>
+    <t>en-Punk jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Shibuya-kei</t>
+  </si>
+  <si>
+    <t>en-Shibuya-kei</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ska_jazz</t>
+  </si>
+  <si>
+    <t>en-Ska jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Smooth_jazz</t>
+  </si>
+  <si>
+    <t>en-Smooth jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Swing_revival</t>
+  </si>
+  <si>
+    <t>en-Swing revival</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>世界音乐</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Australian_jazz</t>
+  </si>
+  <si>
+    <t>en-Australian jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Azerbaijani_jazz</t>
+  </si>
+  <si>
+    <t>en-Azerbaijani jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%96%A9%E8%AB%BE%E7%93%A6</t>
+  </si>
+  <si>
+    <t>巴萨诺瓦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Canadian_jazz</t>
+  </si>
+  <si>
+    <t>en-Canadian jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Afro-Cuban_jazz</t>
+  </si>
+  <si>
+    <t>en-Afro-Cuban jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/French_jazz</t>
+  </si>
+  <si>
+    <t>en-French jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jazz_in_Germany</t>
+  </si>
+  <si>
+    <t>en-Jazz in Germany</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mini-jazz</t>
+  </si>
+  <si>
+    <t>en-Mini-jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jazz_in_India</t>
+  </si>
+  <si>
+    <t>en-Jazz in India</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Italian_jazz</t>
+  </si>
+  <si>
+    <t>en-Italian jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Japanese_jazz</t>
+  </si>
+  <si>
+    <t>en-Japanese jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Music_of_Malawi</t>
+  </si>
+  <si>
+    <t>en-Music of Malawi</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dutch_jazz</t>
+  </si>
+  <si>
+    <t>en-Dutch jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Polish_jazz</t>
+  </si>
+  <si>
+    <t>en-Polish jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/South_African_jazz</t>
+  </si>
+  <si>
+    <t>en-South African jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Spanish_jazz</t>
+  </si>
+  <si>
+    <t>en-Spanish jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/British_jazz</t>
+  </si>
+  <si>
+    <t>en-British jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82%E4%BF%B1%E6%A8%82%E9%83%A8</t>
+  </si>
+  <si>
+    <t>爵士乐俱乐部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E7%BB%8F%E5%85%B8%E6%9B%B2</t>
+  </si>
+  <si>
+    <t>爵士经典曲</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jazz_(word)</t>
+  </si>
+  <si>
+    <t>en-Jazz (word)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
+  </si>
+  <si>
+    <t>路易斯·阿姆斯特朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%B5%81%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>音乐流派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%88%BE%E8%89%AF</t>
+  </si>
+  <si>
+    <t>新奥尔良</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%99%82%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>爵士时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%94%B1</t>
+  </si>
+  <si>
+    <t>对唱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E8%8A%82%E5%A5%8F</t>
+  </si>
+  <si>
+    <t>复节奏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E8%88%88%E6%BC%94%E5%A5%8F</t>
+  </si>
+  <si>
+    <t>即兴演奏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>洛杉矶时报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职棒小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%89%8B</t>
+  </si>
+  <si>
+    <t>投手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E7%90%83%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>棒球球路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AE%BA%E5%9D%9B%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>芝加哥论坛报</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Times-Picayune</t>
+  </si>
+  <si>
+    <t>en-The Times-Picayune</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%85%AC%E5%85%B1%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>全国公共广播电台</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eubie_Blake</t>
+  </si>
+  <si>
+    <t>en-Eubie Blake</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/American_Dialect_Society</t>
+  </si>
+  <si>
+    <t>en-American Dialect Society</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/word_of_the_year</t>
+  </si>
+  <si>
+    <t>en-word of the year</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%8B%8D</t>
+  </si>
+  <si>
+    <t>散拍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%BB%BE%E6%A8%82</t>
+  </si>
+  <si>
+    <t>摇滚乐</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Joachim-Ernst_Berendt</t>
+  </si>
+  <si>
+    <t>en-Joachim-Ernst Berendt</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/art_music</t>
+  </si>
+  <si>
+    <t>en-art music</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E7%89%B9%E9%AB%98</t>
+  </si>
+  <si>
+    <t>罗伯特·克里斯特高</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%9D%88%E9%A0%93%E5%85%AC%E7%88%B5</t>
+  </si>
+  <si>
+    <t>艾灵顿公爵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
+  </si>
+  <si>
+    <t>奴隶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E9%9F%B3%E6%A8%82</t>
+  </si>
+  <si>
+    <t>民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>西非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
+  </si>
+  <si>
+    <t>贫穷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%9B%B2</t>
+  </si>
+  <si>
+    <t>文盲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>圣歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>种族隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
+  </si>
+  <si>
+    <t>教堂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%8D%93%E7%90%B4</t>
+  </si>
+  <si>
+    <t>班卓琴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BC%93</t>
+  </si>
+  <si>
+    <t>鼓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E8%A5%BF%E5%85%B0</t>
+  </si>
+  <si>
+    <t>迪克西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>二十世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B</t>
+  </si>
+  <si>
+    <t>性爱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A6%93%E9%99%A2</t>
+  </si>
+  <si>
+    <t>妓院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
+  </si>
+  <si>
+    <t>巴尔的摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣路易斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%99%9F</t>
+  </si>
+  <si>
+    <t>短号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%B0%A7%E7%AE%A1</t>
+  </si>
+  <si>
+    <t>单簧管</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%99%9F</t>
+  </si>
+  <si>
+    <t>长号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%96%AF</t>
+  </si>
+  <si>
+    <t>贝斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%8B%C2%B7%E9%9F%8B%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>奇克·韦伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E4%BC%AF%C2%B7%E5%87%B1%E6%B4%9B%E5%A8%81</t>
+  </si>
+  <si>
+    <t>凯伯·凯洛威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%96%AF%E7%89%B9%C2%B7%E6%9D%A8</t>
+  </si>
+  <si>
+    <t>莱斯特·杨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B0%BC%C2%B7%E5%8F%A4%E5%BE%B7%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>班尼·古德曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%88%A9%C2%B7%E5%B8%95%E5%85%8B</t>
+  </si>
+  <si>
+    <t>查利·帕克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E9%BD%8A%C2%B7%E5%90%89%E8%90%8A%E6%96%AF%E7%9A%AE</t>
+  </si>
+  <si>
+    <t>迪齐·吉莱斯皮</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%B0%94%E5%A3%AB%C2%B7%E6%88%B4%E7%BB%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>迈尔士·戴维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9A%86%E5%B0%BC%E6%96%AF%C2%B7%E5%AD%9F%E5%85%8B</t>
+  </si>
+  <si>
+    <t>塞隆尼斯·孟克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>肯尼·克拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%96%AF%C2%B7%E7%BE%85%E5%8D%80</t>
+  </si>
+  <si>
+    <t>麦斯·罗区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%98%8E%E6%A0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>查尔斯·明格斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A4%AB%C2%B7%E5%B8%83%E9%B2%81%E8%B4%9D%E5%85%8B</t>
+  </si>
+  <si>
+    <t>戴夫·布鲁贝克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%B0%BC%C2%B7%E7%BE%85%E6%9E%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>桑尼·罗林斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Kind_of_Blue</t>
+  </si>
+  <si>
+    <t>Kind of Blue</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%BC%A6</t>
+  </si>
+  <si>
+    <t>和弦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%A5%8F</t>
+  </si>
+  <si>
+    <t>节奏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E6%AF%94%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
+  </si>
+  <si>
+    <t>贺比·汉考克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%BE%BE%E5%B0%94%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%89%BE%E6%96%87%E6%96%AF</t>
+  </si>
+  <si>
+    <t>比尔·艾文斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E6%80%A7</t>
+  </si>
+  <si>
+    <t>调性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>调式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%96%AF%E7%AE%A1</t>
+  </si>
+  <si>
+    <t>萨克斯管</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%9F%AF%E5%B7%9D</t>
+  </si>
+  <si>
+    <t>约翰·柯川</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Giant_Steps</t>
+  </si>
+  <si>
+    <t>Giant Steps</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%B0%BC%E7%89%B9%C2%B7%E7%A7%91%E5%B0%94%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>奥尼特·科尔曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E6%A8%82</t>
+  </si>
+  <si>
+    <t>灵魂乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%B1%A1%E5%A0%B1%E5%91%8A%E6%A8%82%E5%9C%98</t>
+  </si>
+  <si>
+    <t>气象报告乐团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%8B%C2%B7%E6%9F%AF%E7%91%9E%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奇克·柯瑞亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>英属香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BC%93%E9%9C%B8%E5%A4%A7%E6%A8%82%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>鼓霸大乐队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%B8%89%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>老三台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>伯克利音乐学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E4%BA%9E%E5%BE%B7%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>朱利亚德学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E9%9F%B3%E4%B9%90%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>曼哈顿音乐学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>北德克萨斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%B9%E9%9F%B3%E4%B9%90%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>利兹音乐学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E5%80%AB%E7%B1%B3%E5%8B%92%E5%82%B3</t>
+  </si>
+  <si>
+    <t>葛伦米勒传</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E9%8B%BC%E7%90%B4</t>
+  </si>
+  <si>
+    <t>爵士钢琴</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_jazz_genres</t>
+  </si>
+  <si>
+    <t>en-List of jazz genres</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jazz_royalty</t>
+  </si>
+  <si>
+    <t>en-Jazz royalty</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_jazz_musicians</t>
+  </si>
+  <si>
+    <t>en-List of jazz musicians</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_jazz_standards</t>
+  </si>
+  <si>
+    <t>en-List of jazz standards</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_jazz_venues_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of jazz venues in the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_jazz_venues</t>
+  </si>
+  <si>
+    <t>en-List of jazz venues</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_jazz_festivals</t>
+  </si>
+  <si>
+    <t>en-List of jazz festivals</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bibliography_of_jazz</t>
+  </si>
+  <si>
+    <t>en-Bibliography of jazz</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Timeline_of_jazz_education</t>
+  </si>
+  <si>
+    <t>en-Timeline of jazz education</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Australian_Jazz_Museum</t>
+  </si>
+  <si>
+    <t>en-Australian Jazz Museum</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>国际标准书号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E9%A1%9E%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>音乐类型</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Asian_American_jazz</t>
+  </si>
+  <si>
+    <t>en-Asian American jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%B3%A2%E6%99%AE</t>
+  </si>
+  <si>
+    <t>比波普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A8%82%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>大乐队</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Calypso_music</t>
+  </si>
+  <si>
+    <t>en-Calypso music</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E8%A5%BF%E8%98%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E6%B3%A2%E6%99%AE</t>
+  </si>
+  <si>
+    <t>硬波普</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Twelve-bar_blues</t>
+  </si>
+  <si>
+    <t>en-Twelve-bar blues</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%94%BE%E5%85%8B</t>
+  </si>
+  <si>
+    <t>爵士放克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9E%8D%E5%90%88%E7%88%B5%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>融合爵士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E8%AF%B4%E5%94%B1</t>
+  </si>
+  <si>
+    <t>爵士说唱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%BC%8F%E7%88%B5%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>调式爵士</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/West_Coast_jazz</t>
+  </si>
+  <si>
+    <t>en-West Coast jazz</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF</t>
-  </si>
-  <si>
-    <t>藍調</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E6%B3%B0%E5%A7%86</t>
-  </si>
-  <si>
-    <t>拉格泰姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>民俗音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E8%A1%8C%E6%9B%B2</t>
-  </si>
-  <si>
-    <t>进行曲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>古典音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E7%AE%A1%E6%A8%82%E5%99%A8</t>
-  </si>
-  <si>
-    <t>銅管樂器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%96%AF%E9%A2%A8</t>
-  </si>
-  <si>
-    <t>薩克斯風</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E7%9B%A4%E6%A8%82%E5%99%A8</t>
-  </si>
-  <si>
-    <t>鍵盤樂器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E9%9F%B3%E6%8F%90%E7%90%B4</t>
-  </si>
-  <si>
-    <t>低音提琴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E9%BC%93</t>
-  </si>
-  <si>
-    <t>爵士鼓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E4%BB%96</t>
-  </si>
-  <si>
-    <t>吉他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%94%B1</t>
-  </si>
-  <si>
-    <t>歌唱</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Avant-garde_jazz</t>
-  </si>
-  <si>
-    <t>en-Avant-garde jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%86%E5%8B%83%E7%88%B5%E5%A3%AB%E6%A8%82</t>
-  </si>
-  <si>
-    <t>咆勃爵士樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A8%82%E5%9C%98</t>
-  </si>
-  <si>
-    <t>大樂團</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chamber_jazz</t>
-  </si>
-  <si>
-    <t>en-Chamber jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E7%88%B5%E5%A3%AB%E6%A8%82</t>
-  </si>
-  <si>
-    <t>冷爵士樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Free_jazz</t>
-  </si>
-  <si>
-    <t>Free jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%99%AE%E8%B3%BD%E7%88%B5%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>吉普賽爵士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E5%8D%9A%E6%99%AE%E6%A8%82</t>
-  </si>
-  <si>
-    <t>硬博普樂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Latin_jazz</t>
-  </si>
-  <si>
-    <t>en-Latin jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mainstream_jazz</t>
-  </si>
-  <si>
-    <t>en-Mainstream jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%81%94%E7%88%BE%E7%88%B5%E5%A3%AB%E6%A8%82</t>
-  </si>
-  <si>
-    <t>莫達爾爵士樂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/M-Base</t>
-  </si>
-  <si>
-    <t>en-M-Base</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neo-bop_jazz</t>
-  </si>
-  <si>
-    <t>en-Neo-bop jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Post-bop</t>
-  </si>
-  <si>
-    <t>en-Post-bop</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Soul_jazz</t>
-  </si>
-  <si>
-    <t>en-Soul jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%93%BA%E6%A8%82</t>
-  </si>
-  <si>
-    <t>搖擺樂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Third_stream</t>
-  </si>
-  <si>
-    <t>en-Third stream</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Trad_jazz</t>
-  </si>
-  <si>
-    <t>en-Trad jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%88%B5%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>酸爵士</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Afrobeat</t>
-  </si>
-  <si>
-    <t>en-Afrobeat</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>藍草音樂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Crossover_jazz</t>
-  </si>
-  <si>
-    <t>en-Crossover jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dansband</t>
-  </si>
-  <si>
-    <t>en-Dansband</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Folk_jazz</t>
-  </si>
-  <si>
-    <t>en-Folk jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Free_funk</t>
-  </si>
-  <si>
-    <t>en-Free funk</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Humppa</t>
-  </si>
-  <si>
-    <t>en-Humppa</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Indo_jazz</t>
-  </si>
-  <si>
-    <t>en-Indo jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jam_band</t>
-  </si>
-  <si>
-    <t>en-Jam band</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jazzcore</t>
-  </si>
-  <si>
-    <t>en-Jazzcore</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%85%8B%E7%88%B5%E5%A3%AB%E6%A8%82</t>
-  </si>
-  <si>
-    <t>放克爵士樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9E%8D%E5%90%88%E7%88%B5%E5%A3%AB%E6%A8%82</t>
-  </si>
-  <si>
-    <t>融合爵士樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Jazz_rap</t>
-  </si>
-  <si>
-    <t>Jazz rap</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kwela</t>
-  </si>
-  <si>
-    <t>en-Kwela</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mambo_(music)</t>
-  </si>
-  <si>
-    <t>en-Mambo (music)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Manila_Sound</t>
-  </si>
-  <si>
-    <t>en-Manila Sound</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%88%B5%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>新爵士</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neo_soul</t>
-  </si>
-  <si>
-    <t>en-Neo soul</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Punk_jazz</t>
-  </si>
-  <si>
-    <t>en-Punk jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Shibuya-kei</t>
-  </si>
-  <si>
-    <t>en-Shibuya-kei</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ska_jazz</t>
-  </si>
-  <si>
-    <t>en-Ska jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Smooth_jazz</t>
-  </si>
-  <si>
-    <t>en-Smooth jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Swing_revival</t>
-  </si>
-  <si>
-    <t>en-Swing revival</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>世界音樂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Australian_jazz</t>
-  </si>
-  <si>
-    <t>en-Australian jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Azerbaijani_jazz</t>
-  </si>
-  <si>
-    <t>en-Azerbaijani jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%96%A9%E8%AB%BE%E7%93%A6</t>
-  </si>
-  <si>
-    <t>巴薩諾瓦</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Canadian_jazz</t>
-  </si>
-  <si>
-    <t>en-Canadian jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Afro-Cuban_jazz</t>
-  </si>
-  <si>
-    <t>en-Afro-Cuban jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/French_jazz</t>
-  </si>
-  <si>
-    <t>en-French jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jazz_in_Germany</t>
-  </si>
-  <si>
-    <t>en-Jazz in Germany</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mini-jazz</t>
-  </si>
-  <si>
-    <t>en-Mini-jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jazz_in_India</t>
-  </si>
-  <si>
-    <t>en-Jazz in India</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Italian_jazz</t>
-  </si>
-  <si>
-    <t>en-Italian jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Japanese_jazz</t>
-  </si>
-  <si>
-    <t>en-Japanese jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Music_of_Malawi</t>
-  </si>
-  <si>
-    <t>en-Music of Malawi</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dutch_jazz</t>
-  </si>
-  <si>
-    <t>en-Dutch jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Polish_jazz</t>
-  </si>
-  <si>
-    <t>en-Polish jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/South_African_jazz</t>
-  </si>
-  <si>
-    <t>en-South African jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Spanish_jazz</t>
-  </si>
-  <si>
-    <t>en-Spanish jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/British_jazz</t>
-  </si>
-  <si>
-    <t>en-British jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82%E4%BF%B1%E6%A8%82%E9%83%A8</t>
-  </si>
-  <si>
-    <t>爵士樂俱樂部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E7%BB%8F%E5%85%B8%E6%9B%B2</t>
-  </si>
-  <si>
-    <t>爵士经典曲</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jazz_(word)</t>
-  </si>
-  <si>
-    <t>en-Jazz (word)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
-  </si>
-  <si>
-    <t>路易斯·阿姆斯特朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%B5%81%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>音乐流派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%88%BE%E8%89%AF</t>
-  </si>
-  <si>
-    <t>新奧爾良</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%99%82%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>爵士時代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%94%B1</t>
-  </si>
-  <si>
-    <t>对唱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E8%8A%82%E5%A5%8F</t>
-  </si>
-  <si>
-    <t>复节奏</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E8%88%88%E6%BC%94%E5%A5%8F</t>
-  </si>
-  <si>
-    <t>即興演奏</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>洛杉磯時報</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職棒小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%89%8B</t>
-  </si>
-  <si>
-    <t>投手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83%E7%90%83%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>棒球球路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AE%BA%E5%9D%9B%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>芝加哥论坛报</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Times-Picayune</t>
-  </si>
-  <si>
-    <t>en-The Times-Picayune</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%85%AC%E5%85%B1%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>全国公共广播电台</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Eubie_Blake</t>
-  </si>
-  <si>
-    <t>en-Eubie Blake</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/American_Dialect_Society</t>
-  </si>
-  <si>
-    <t>en-American Dialect Society</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/word_of_the_year</t>
-  </si>
-  <si>
-    <t>en-word of the year</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%8B%8D</t>
-  </si>
-  <si>
-    <t>散拍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%BB%BE%E6%A8%82</t>
-  </si>
-  <si>
-    <t>搖滾樂</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Joachim-Ernst_Berendt</t>
-  </si>
-  <si>
-    <t>en-Joachim-Ernst Berendt</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/art_music</t>
-  </si>
-  <si>
-    <t>en-art music</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E7%89%B9%E9%AB%98</t>
-  </si>
-  <si>
-    <t>羅伯特·克里斯特高</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%9D%88%E9%A0%93%E5%85%AC%E7%88%B5</t>
-  </si>
-  <si>
-    <t>艾靈頓公爵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
-  </si>
-  <si>
-    <t>奴隸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E9%9F%B3%E6%A8%82</t>
-  </si>
-  <si>
-    <t>民間音樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>西非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
-  </si>
-  <si>
-    <t>貧窮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>美國內戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%9B%B2</t>
-  </si>
-  <si>
-    <t>文盲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>棉花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>聖歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
-  </si>
-  <si>
-    <t>種族隔離</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
-  </si>
-  <si>
-    <t>教堂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%8D%93%E7%90%B4</t>
-  </si>
-  <si>
-    <t>班卓琴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%B8%AB</t>
-  </si>
-  <si>
-    <t>牧師</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BC%93</t>
-  </si>
-  <si>
-    <t>鼓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E8%A5%BF%E5%85%B0</t>
-  </si>
-  <si>
-    <t>迪克西兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>二十世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF</t>
-  </si>
-  <si>
-    <t>新奥尔良</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B</t>
-  </si>
-  <si>
-    <t>性愛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%93%E9%99%A2</t>
-  </si>
-  <si>
-    <t>妓院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
-  </si>
-  <si>
-    <t>巴爾的摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖路易斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%99%9F</t>
-  </si>
-  <si>
-    <t>短號</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第一次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
-  </si>
-  <si>
-    <t>紐約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%B0%A7%E7%AE%A1</t>
-  </si>
-  <si>
-    <t>單簧管</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%99%9F</t>
-  </si>
-  <si>
-    <t>長號</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%96%AF</t>
-  </si>
-  <si>
-    <t>貝斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%8B%C2%B7%E9%9F%8B%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>奇克·韋伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E4%BC%AF%C2%B7%E5%87%B1%E6%B4%9B%E5%A8%81</t>
-  </si>
-  <si>
-    <t>凱伯·凱洛威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%96%AF%E7%89%B9%C2%B7%E6%9D%A8</t>
-  </si>
-  <si>
-    <t>莱斯特·杨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B0%BC%C2%B7%E5%8F%A4%E5%BE%B7%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>班尼·古德曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%88%A9%C2%B7%E5%B8%95%E5%85%8B</t>
-  </si>
-  <si>
-    <t>查利·帕克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E9%BD%8A%C2%B7%E5%90%89%E8%90%8A%E6%96%AF%E7%9A%AE</t>
-  </si>
-  <si>
-    <t>迪齊·吉萊斯皮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%B0%94%E5%A3%AB%C2%B7%E6%88%B4%E7%BB%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>迈尔士·戴维斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%9A%86%E5%B0%BC%E6%96%AF%C2%B7%E5%AD%9F%E5%85%8B</t>
-  </si>
-  <si>
-    <t>塞隆尼斯·孟克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>肯尼·克拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%96%AF%C2%B7%E7%BE%85%E5%8D%80</t>
-  </si>
-  <si>
-    <t>麥斯·羅區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%98%8E%E6%A0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>查尔斯·明格斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A4%AB%C2%B7%E5%B8%83%E9%B2%81%E8%B4%9D%E5%85%8B</t>
-  </si>
-  <si>
-    <t>戴夫·布鲁贝克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%B0%BC%C2%B7%E7%BE%85%E6%9E%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>桑尼·羅林斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Kind_of_Blue</t>
-  </si>
-  <si>
-    <t>Kind of Blue</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%BC%A6</t>
-  </si>
-  <si>
-    <t>和弦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%A5%8F</t>
-  </si>
-  <si>
-    <t>節奏</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E6%AF%94%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
-  </si>
-  <si>
-    <t>賀比·漢考克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%BE%BE%E5%B0%94%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>莫达尔爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%89%BE%E6%96%87%E6%96%AF</t>
-  </si>
-  <si>
-    <t>比爾·艾文斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E6%80%A7</t>
-  </si>
-  <si>
-    <t>調性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>調式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%96%AF%E7%AE%A1</t>
-  </si>
-  <si>
-    <t>萨克斯管</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%9F%AF%E5%B7%9D</t>
-  </si>
-  <si>
-    <t>約翰·柯川</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Giant_Steps</t>
-  </si>
-  <si>
-    <t>Giant Steps</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82</t>
-  </si>
-  <si>
-    <t>爵士樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%B0%BC%E7%89%B9%C2%B7%E7%A7%91%E5%B0%94%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>奥尼特·科尔曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E6%A8%82</t>
-  </si>
-  <si>
-    <t>靈魂樂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%B1%A1%E5%A0%B1%E5%91%8A%E6%A8%82%E5%9C%98</t>
-  </si>
-  <si>
-    <t>氣象報告樂團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%8B%C2%B7%E6%9F%AF%E7%91%9E%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奇克·柯瑞亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>英屬香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BC%93%E9%9C%B8%E5%A4%A7%E6%A8%82%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>鼓霸大樂隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%B8%89%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>老三台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>伯克利音樂學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%88%A9%E4%BA%9E%E5%BE%B7%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>朱利亞德學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF%E9%9F%B3%E4%B9%90%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>曼哈顿音乐学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>北德克薩斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%85%B9%E9%9F%B3%E4%B9%90%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>利兹音乐学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E5%80%AB%E7%B1%B3%E5%8B%92%E5%82%B3</t>
-  </si>
-  <si>
-    <t>葛倫米勒傳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E9%8B%BC%E7%90%B4</t>
-  </si>
-  <si>
-    <t>爵士鋼琴</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_jazz_genres</t>
-  </si>
-  <si>
-    <t>en-List of jazz genres</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jazz_royalty</t>
-  </si>
-  <si>
-    <t>en-Jazz royalty</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_jazz_musicians</t>
-  </si>
-  <si>
-    <t>en-List of jazz musicians</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_jazz_standards</t>
-  </si>
-  <si>
-    <t>en-List of jazz standards</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_jazz_venues_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of jazz venues in the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_jazz_venues</t>
-  </si>
-  <si>
-    <t>en-List of jazz venues</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_jazz_festivals</t>
-  </si>
-  <si>
-    <t>en-List of jazz festivals</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bibliography_of_jazz</t>
-  </si>
-  <si>
-    <t>en-Bibliography of jazz</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Timeline_of_jazz_education</t>
-  </si>
-  <si>
-    <t>en-Timeline of jazz education</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Australian_Jazz_Museum</t>
-  </si>
-  <si>
-    <t>en-Australian Jazz Museum</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E4%B9%A6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>国际标准书号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E9%A1%9E%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>音樂類型</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Asian_American_jazz</t>
-  </si>
-  <si>
-    <t>en-Asian American jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%B3%A2%E6%99%AE</t>
-  </si>
-  <si>
-    <t>比波普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%A8%82%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>大樂隊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Calypso_music</t>
-  </si>
-  <si>
-    <t>en-Calypso music</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>迪克西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E6%B3%A2%E6%99%AE</t>
-  </si>
-  <si>
-    <t>硬波普</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Twelve-bar_blues</t>
-  </si>
-  <si>
-    <t>en-Twelve-bar blues</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%94%BE%E5%85%8B</t>
-  </si>
-  <si>
-    <t>爵士放克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9E%8D%E5%90%88%E7%88%B5%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>融合爵士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E8%AF%B4%E5%94%B1</t>
-  </si>
-  <si>
-    <t>爵士说唱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%BC%8F%E7%88%B5%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>調式爵士</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/West_Coast_jazz</t>
-  </si>
-  <si>
-    <t>en-West Coast jazz</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,7 +4957,7 @@
         <v>235</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -4989,10 +4983,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5018,10 +5012,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5047,10 +5041,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5076,10 +5070,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5105,10 +5099,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5134,10 +5128,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5163,10 +5157,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5192,10 +5186,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5221,10 +5215,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5250,10 +5244,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5279,10 +5273,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5308,10 +5302,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5337,10 +5331,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5366,10 +5360,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5395,10 +5389,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5424,10 +5418,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5453,10 +5447,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5482,10 +5476,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>14</v>
@@ -5511,10 +5505,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5540,10 +5534,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5569,10 +5563,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5598,10 +5592,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5627,10 +5621,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5656,10 +5650,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5685,10 +5679,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5714,10 +5708,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>13</v>
@@ -5743,10 +5737,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>20</v>
@@ -5772,10 +5766,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -5801,10 +5795,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -5830,10 +5824,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5859,10 +5853,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5888,10 +5882,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>8</v>
@@ -5917,10 +5911,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -5946,10 +5940,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>11</v>
@@ -5975,10 +5969,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6004,13 +5998,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G154" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6033,10 +6027,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6062,13 +6056,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6091,13 +6085,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6120,10 +6114,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6149,10 +6143,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6178,10 +6172,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6207,10 +6201,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6236,10 +6230,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6265,10 +6259,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6294,10 +6288,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6323,10 +6317,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6352,10 +6346,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6381,10 +6375,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6410,10 +6404,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6439,10 +6433,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6468,10 +6462,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6497,10 +6491,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6526,10 +6520,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6555,10 +6549,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6584,13 +6578,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -6613,13 +6607,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -6642,10 +6636,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6671,10 +6665,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6700,10 +6694,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6729,13 +6723,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -6758,13 +6752,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -6787,10 +6781,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6816,10 +6810,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6845,13 +6839,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -6874,13 +6868,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -6903,10 +6897,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6932,10 +6926,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6961,10 +6955,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6990,10 +6984,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7019,13 +7013,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7048,13 +7042,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G190" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7077,10 +7071,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7106,10 +7100,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7135,13 +7129,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7164,13 +7158,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7193,10 +7187,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7222,10 +7216,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7251,10 +7245,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7280,18 +7274,47 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
       </c>
       <c r="I198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>198</v>
+      </c>
+      <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
+        <v>392</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" t="n">
         <v>3</v>
       </c>
     </row>
